--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471974.3608735779</v>
+        <v>469494.3720284452</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>212.5555264945939</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.55381354163449</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>153.241310696705</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>190.5526341827785</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>376.1395149175032</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>7.238882005934783</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>32.49791859588913</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>77.84724700848633</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>73.89560210629676</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,10 +1190,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>112.8452622460481</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.2162827771177</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>65.92009399575514</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722641</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542921</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>77.39507264402732</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>143.7703193541471</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.09841665934233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>41.33703994142957</v>
+        <v>92.87435055577328</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986248</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.268486125808647</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,19 +2530,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>156.0235370972434</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.1249649038638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>20.92847288552895</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>48.85497112745768</v>
+        <v>56.04917322725603</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>131.2944603446576</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>122.6028762599956</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1957.346298904865</v>
+        <v>1005.344648689697</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>636.3821317492857</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>636.3821317492857</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4361,19 +4361,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.1279287449</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="Y2" t="n">
-        <v>1957.346298904865</v>
+        <v>1005.344648689697</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>367.6491696559297</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508772</v>
+        <v>927.5959500216837</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229704</v>
+        <v>758.6597670937768</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>608.5431276814411</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>460.630034099048</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>460.630034099048</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>1109.244414851923</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1528.069587875905</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1159.107070935494</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1159.107070935494</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1159.107070935494</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2748.494926768127</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W5" t="n">
-        <v>2395.726271498012</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="X5" t="n">
-        <v>2395.726271498012</v>
+        <v>2304.808759915839</v>
       </c>
       <c r="Y5" t="n">
-        <v>2005.586939522201</v>
+        <v>1914.669427940027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4641,31 +4641,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8459426266613</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>711.2880532342236</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>561.1714138218879</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>413.2583202394948</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1758.830508009166</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.063892578692</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U7" t="n">
-        <v>1247.961025704335</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>993.2765374984485</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="W7" t="n">
-        <v>993.2765374984485</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="X7" t="n">
-        <v>765.2869866004312</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.4944074569011</v>
+        <v>880.2242361621305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
         <v>1678.62132134232</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3250.963799279578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3044.9860516638</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2791.455574937636</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2791.455574937636</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2438.686919667522</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2065.221161406442</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.5418494269122</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1357.425637711307</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1102.74114950542</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>813.3239794684597</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>585.3344285704424</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>364.5418494269122</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191928</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434952</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>923.067041434952</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951537</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>189.4149073564862</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="14">
@@ -5279,22 +5279,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,16 +5361,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991042</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711973</v>
+        <v>633.99264446797</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.101833227361</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1048.112282329344</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495163</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495163</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6695,52 +6695,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C34" t="n">
-        <v>464.5051450557705</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,34 +6953,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.57599612053</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>920.6398131926233</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>770.5231737802875</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>622.6100801978944</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>475.720132699984</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>308.5240334148639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>196.5408620426159</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7494,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>70.03064962107919</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.347801705081159e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>348.8516015711091</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>169.3748435776679</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>223.7250998316091</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.6841251144191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182048</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>70.88187642683964</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7894017452168</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892453</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>45.3794168272091</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>107.2784330767828</v>
+        <v>55.74112246243908</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.294712846222</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>146.3469868924037</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>130.4994612393476</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>118.3918499711702</v>
+        <v>111.1976478713718</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>9.000252501566251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>22.81817176293566</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>969829.6791488499</v>
+        <v>969829.6791488498</v>
       </c>
     </row>
     <row r="3">
@@ -26320,7 +26320,7 @@
         <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527532</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
@@ -26332,16 +26332,16 @@
         <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="J2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527529</v>
@@ -26350,10 +26350,10 @@
         <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121064</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073561</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95375.52669455665</v>
+        <v>95375.52669455661</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312007</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26436,19 +26436,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9947.144321768872</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768938</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-948484.9858472013</v>
+        <v>-948671.3792357399</v>
       </c>
       <c r="C6" t="n">
-        <v>-10512.02058108465</v>
+        <v>-10512.02058108526</v>
       </c>
       <c r="D6" t="n">
-        <v>192926.7210310209</v>
+        <v>192926.7210310213</v>
       </c>
       <c r="E6" t="n">
-        <v>-53087.50110027895</v>
+        <v>-53122.23902571396</v>
       </c>
       <c r="F6" t="n">
-        <v>272324.9607070779</v>
+        <v>272290.2227816414</v>
       </c>
       <c r="G6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816411</v>
       </c>
       <c r="H6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816413</v>
       </c>
       <c r="I6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816414</v>
       </c>
       <c r="J6" t="n">
-        <v>104719.7828970943</v>
+        <v>104685.0449716587</v>
       </c>
       <c r="K6" t="n">
-        <v>223214.8680010224</v>
+        <v>223180.1300755867</v>
       </c>
       <c r="L6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="M6" t="n">
-        <v>187269.9327715649</v>
+        <v>187235.1948461294</v>
       </c>
       <c r="N6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="O6" t="n">
-        <v>272324.960707077</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="P6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816411</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5.831440049573814</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>27.32015029685294</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>13.06528934809921</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>35.15702120625869</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>30.73653082420822</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>320.5133764642001</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>112.9231294270421</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>111.9217783229556</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>35.29215968187907</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>236.3957064713649</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>33.03053832151014</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>220.2917442098577</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.585363380714416e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899845</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437247</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485293</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206127</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>256.618145864564</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678999</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N12" t="n">
-        <v>425.4542490066512</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992803</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
